--- a/xlsx/意识形态_intext.xlsx
+++ b/xlsx/意识形态_intext.xlsx
@@ -15,317 +15,320 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="358">
   <si>
     <t>意识形态</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ideology</t>
+  </si>
+  <si>
+    <t>en-Ideology</t>
+  </si>
+  <si>
+    <t>政策_政策_政治_意识形态</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>政治学基本主题列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治经济学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_history</t>
+  </si>
+  <si>
+    <t>en-Political history</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_history_of_the_world</t>
+  </si>
+  <si>
+    <t>en-Political history of the world</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
+  </si>
+  <si>
+    <t>政体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>无政府主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%82%A6</t>
+  </si>
+  <si>
+    <t>城邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Federacy</t>
+  </si>
+  <si>
+    <t>en-Federacy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
+  </si>
+  <si>
+    <t>封建制度 (欧洲)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
+  </si>
+  <si>
+    <t>独裁政体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
+  </si>
+  <si>
+    <t>委员会制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>精英政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>半总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%9D%83%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>神权政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>政治学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%85%B3%E7%B3%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>国际关系学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>国际关系理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>比较政治学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>公共行政学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>官僚制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B1%82%E5%AE%98%E5%83%9A</t>
+  </si>
+  <si>
+    <t>基层官僚</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Adhocracy</t>
+  </si>
+  <si>
+    <t>en-Adhocracy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>公共政策</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Public_policy_doctrine</t>
+  </si>
+  <si>
+    <t>en-Public policy doctrine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>公益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>外交政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>行政机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>司法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>中央选举委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83</t>
+  </si>
+  <si>
+    <t>主权</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Theories_of_political_behavior</t>
+  </si>
+  <si>
+    <t>en-Theories of political behavior</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>政治心理学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
+  </si>
+  <si>
+    <t>en-Biology and political orientation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_organisation</t>
+  </si>
+  <si>
+    <t>en-Political organisation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>投票制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8</t>
+  </si>
+  <si>
+    <t>投票</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>联邦主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Ideology</t>
-  </si>
-  <si>
-    <t>en-Ideology</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_意识形态</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>政治學基本主題列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治经济学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_history</t>
-  </si>
-  <si>
-    <t>en-Political history</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_history_of_the_world</t>
-  </si>
-  <si>
-    <t>en-Political history of the world</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
-  </si>
-  <si>
-    <t>政体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>无政府主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%82%A6</t>
-  </si>
-  <si>
-    <t>城邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>民主</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Federacy</t>
-  </si>
-  <si>
-    <t>en-Federacy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
-  </si>
-  <si>
-    <t>封建制度 (歐洲)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
-  </si>
-  <si>
-    <t>独裁政体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
-  </si>
-  <si>
-    <t>委員會制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>精英政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>议会制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>总统制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>半总统制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%9D%83%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>神权政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>政治学家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%85%B3%E7%B3%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>国际关系学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>國際關係理論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>比较政治学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>公共行政学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>官僚制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B1%82%E5%AE%98%E5%83%9A</t>
-  </si>
-  <si>
-    <t>基层官僚</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Adhocracy</t>
-  </si>
-  <si>
-    <t>en-Adhocracy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>公共政策</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Public_policy_doctrine</t>
-  </si>
-  <si>
-    <t>en-Public policy doctrine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>公益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>外交政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>行政机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>司法機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>中央选举委员会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83</t>
-  </si>
-  <si>
-    <t>主权</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Theories_of_political_behavior</t>
-  </si>
-  <si>
-    <t>en-Theories of political behavior</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治心理學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
-  </si>
-  <si>
-    <t>en-Biology and political orientation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_organisation</t>
-  </si>
-  <si>
-    <t>en-Political organisation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>投票制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8</t>
-  </si>
-  <si>
-    <t>投票</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>联邦主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
   </si>
   <si>
@@ -347,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>極權主義</t>
+    <t>极权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>綠色無政府主義</t>
+    <t>绿色无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89</t>
@@ -401,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社團主義</t>
+    <t>社团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
@@ -425,37 +428,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>生態社會主義</t>
+    <t>生态社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府社會主義</t>
+    <t>无政府社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志社會主義</t>
+    <t>自由意志社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社群主義</t>
+    <t>社群主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>集體主義</t>
+    <t>集体主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教民主主義</t>
+    <t>基督教民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
@@ -479,13 +482,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守自由主義</t>
+    <t>保守自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E4%B8%BB%E4%B9%89</t>
@@ -509,19 +512,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>三民主義</t>
+    <t>三民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由保守主義</t>
+    <t>自由保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族保守主義</t>
+    <t>民族保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -539,13 +542,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族主義</t>
+    <t>民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>原教旨主義</t>
+    <t>原教旨主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%9F%BA%E8%A6%81%E4%B8%BB%E4%B9%89</t>
@@ -575,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>納粹主義</t>
+    <t>纳粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治意識形態列表</t>
+    <t>政治意识形态列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
@@ -593,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E5%BE%B7%E5%81%89</t>
   </si>
   <si>
-    <t>周德偉</t>
+    <t>周德伟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E6%AF%93%E7%94%9F</t>
@@ -605,25 +608,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%AD%AF</t>
   </si>
   <si>
-    <t>音譯</t>
+    <t>音译</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%AF</t>
   </si>
   <si>
-    <t>意譯</t>
+    <t>意译</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%A6%AC%E5%85%8B%E6%80%9D</t>
   </si>
   <si>
-    <t>卡爾·馬克思</t>
+    <t>卡尔·马克思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B1%A4%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>上層建築</t>
+    <t>上层建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E4%BC%A0</t>
@@ -641,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BB%B4%E5%B0%94</t>
@@ -671,13 +674,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%A7%E6%A8%99</t>
   </si>
   <si>
-    <t>座標</t>
+    <t>座标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%AF%A6</t>
   </si>
   <si>
-    <t>現實</t>
+    <t>现实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%84%E5%BA%B8</t>
@@ -701,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%9F%AF</t>
@@ -713,49 +716,46 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E8%AA%AA</t>
   </si>
   <si>
-    <t>遊說</t>
+    <t>游说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%A1%88</t>
   </si>
   <si>
-    <t>議案</t>
+    <t>议案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%9C%BE</t>
   </si>
   <si>
-    <t>民眾</t>
+    <t>民众</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E8%98%AD%E8%A5%BF</t>
   </si>
   <si>
-    <t>葛蘭西</t>
+    <t>葛兰西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B8%E6%AC%8A</t>
   </si>
   <si>
-    <t>霸權</t>
+    <t>霸权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E9%AB%94%E8%BF%B7%E6%80%9D</t>
   </si>
   <si>
-    <t>團體迷思</t>
+    <t>团体迷思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5</t>
@@ -767,55 +767,52 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C</t>
   </si>
   <si>
-    <t>著作</t>
+    <t>着作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言學</t>
+    <t>语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E5%96%BB</t>
   </si>
   <si>
-    <t>隱喻</t>
+    <t>隐喻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E8%AB%96</t>
   </si>
   <si>
-    <t>知識論</t>
+    <t>知识论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>倫理</t>
+    <t>伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%85%89%E8%AD%9C</t>
   </si>
   <si>
-    <t>政治光譜</t>
+    <t>政治光谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%9C%96</t>
   </si>
   <si>
-    <t>藍圖</t>
+    <t>蓝图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D</t>
   </si>
   <si>
-    <t>馬克思</t>
+    <t>马克思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%A0%BC%E6%96%AF</t>
@@ -827,13 +824,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Corporate_liberalism</t>
@@ -845,39 +839,24 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>帝國主義</t>
+    <t>帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會民主主義</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/systematic_ideology</t>
   </si>
   <si>
@@ -893,25 +872,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>階級</t>
+    <t>阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A7%80</t>
   </si>
   <si>
-    <t>世界觀</t>
+    <t>世界观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會學家</t>
+    <t>社会学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%BE%A9</t>
   </si>
   <si>
-    <t>教義</t>
+    <t>教义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89</t>
@@ -929,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>封閉系統</t>
+    <t>封闭系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%8D%A1%E5%A5%87</t>
@@ -941,31 +920,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E9%9C%B8%E6%AC%8A</t>
   </si>
   <si>
-    <t>文化霸權</t>
+    <t>文化霸权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>工人階級</t>
+    <t>工人阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新自由主義</t>
+    <t>新自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>知識社會學</t>
+    <t>知识社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E6%B5%B7%E5%A7%86</t>
@@ -977,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BC%AF%E7%91%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>哈伯瑪斯</t>
+    <t>哈伯玛斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%BF%AA%E5%8E%84</t>
@@ -989,13 +968,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>法蘭克福學派</t>
+    <t>法兰克福学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%8E%B0%E4%BB%A3</t>
@@ -1013,31 +992,28 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E5%BC%97%E5%BE%B7%C2%B7%E7%B4%80%E7%88%BE%E8%8C%B2</t>
   </si>
   <si>
-    <t>克利弗德·紀爾茲</t>
+    <t>克利弗德·纪尔兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>主義</t>
+    <t>主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>极权主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國家恐怖主義</t>
+    <t>国家恐怖主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B8%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -1055,19 +1031,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>资本主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>女性主義</t>
+    <t>女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>路德維希·馮·米塞斯</t>
+    <t>路德维希·冯·米塞斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E9%81%93%E5%B9%B3</t>
@@ -1079,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%B5%81</t>
   </si>
   <si>
-    <t>遠流</t>
+    <t>远流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%B7%E6%B5%B7%E5%85%89</t>
@@ -1091,19 +1064,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E8%AB%96</t>
   </si>
   <si>
-    <t>資本論</t>
+    <t>资本论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>人民日報</t>
+    <t>人民日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1115,16 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2974,10 +2938,10 @@
         <v>103</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -3000,13 +2964,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
       </c>
-      <c r="F53" t="s">
-        <v>106</v>
-      </c>
       <c r="G53" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -3029,13 +2993,13 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
       </c>
-      <c r="F54" t="s">
-        <v>108</v>
-      </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -3058,10 +3022,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3087,10 +3051,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3116,10 +3080,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3145,10 +3109,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3174,13 +3138,13 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
       </c>
-      <c r="F59" t="s">
-        <v>118</v>
-      </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -3203,13 +3167,13 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
       </c>
-      <c r="F60" t="s">
-        <v>120</v>
-      </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -3232,10 +3196,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3261,13 +3225,13 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
       </c>
-      <c r="F62" t="s">
-        <v>124</v>
-      </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -3290,13 +3254,13 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
       </c>
-      <c r="F63" t="s">
-        <v>126</v>
-      </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -3319,10 +3283,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3348,13 +3312,13 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
       </c>
-      <c r="F65" t="s">
-        <v>130</v>
-      </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -3377,13 +3341,13 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
       </c>
-      <c r="F66" t="s">
-        <v>132</v>
-      </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -3406,10 +3370,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3435,10 +3399,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3464,10 +3428,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3493,10 +3457,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3522,13 +3486,13 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
       </c>
-      <c r="F71" t="s">
-        <v>142</v>
-      </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -3551,13 +3515,13 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
       </c>
-      <c r="F72" t="s">
-        <v>144</v>
-      </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -3580,13 +3544,13 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
       </c>
-      <c r="F73" t="s">
-        <v>146</v>
-      </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -3609,13 +3573,13 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
       </c>
-      <c r="F74" t="s">
-        <v>148</v>
-      </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -3638,13 +3602,13 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
       </c>
-      <c r="F75" t="s">
-        <v>150</v>
-      </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -3667,10 +3631,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3696,10 +3660,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3725,10 +3689,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3754,10 +3718,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3783,13 +3747,13 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
       </c>
-      <c r="F80" t="s">
-        <v>160</v>
-      </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -3812,13 +3776,13 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
       </c>
-      <c r="F81" t="s">
-        <v>162</v>
-      </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -3841,13 +3805,13 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
       </c>
-      <c r="F82" t="s">
-        <v>164</v>
-      </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -3870,13 +3834,13 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
       </c>
-      <c r="F83" t="s">
-        <v>166</v>
-      </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -3899,10 +3863,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3928,10 +3892,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3957,10 +3921,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3986,13 +3950,13 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
       </c>
-      <c r="F87" t="s">
-        <v>174</v>
-      </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -4015,13 +3979,13 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
       </c>
-      <c r="F88" t="s">
-        <v>176</v>
-      </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -4044,13 +4008,13 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
       </c>
-      <c r="F89" t="s">
-        <v>178</v>
-      </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -4073,10 +4037,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4102,10 +4066,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4131,10 +4095,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4160,10 +4124,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4189,13 +4153,13 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
       </c>
-      <c r="F94" t="s">
-        <v>188</v>
-      </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -4218,13 +4182,13 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
       </c>
-      <c r="F95" t="s">
-        <v>190</v>
-      </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -4247,13 +4211,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
       </c>
-      <c r="F96" t="s">
-        <v>192</v>
-      </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -4276,13 +4240,13 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
       </c>
-      <c r="F97" t="s">
-        <v>194</v>
-      </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -4305,13 +4269,13 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
       </c>
-      <c r="F98" t="s">
-        <v>196</v>
-      </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -4334,10 +4298,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4363,10 +4327,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4392,13 +4356,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -4421,13 +4385,13 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
       </c>
-      <c r="F102" t="s">
-        <v>202</v>
-      </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -4450,13 +4414,13 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
       </c>
-      <c r="F103" t="s">
-        <v>204</v>
-      </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -4479,13 +4443,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
       </c>
-      <c r="F104" t="s">
-        <v>206</v>
-      </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -4508,10 +4472,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4537,13 +4501,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G106" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -4566,13 +4530,13 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -4595,13 +4559,13 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
       </c>
-      <c r="F108" t="s">
-        <v>212</v>
-      </c>
       <c r="G108" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -4624,13 +4588,13 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
       </c>
-      <c r="F109" t="s">
-        <v>214</v>
-      </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -4653,10 +4617,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4682,13 +4646,13 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
       </c>
-      <c r="F111" t="s">
-        <v>218</v>
-      </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -4711,13 +4675,13 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
       </c>
-      <c r="F112" t="s">
-        <v>220</v>
-      </c>
       <c r="G112" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -4740,13 +4704,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
       </c>
-      <c r="F113" t="s">
-        <v>222</v>
-      </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -4769,10 +4733,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4798,13 +4762,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
       </c>
-      <c r="F115" t="s">
-        <v>226</v>
-      </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -4827,13 +4791,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
       </c>
-      <c r="F116" t="s">
-        <v>228</v>
-      </c>
       <c r="G116" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -4856,13 +4820,13 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
       </c>
-      <c r="F117" t="s">
-        <v>230</v>
-      </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -4885,13 +4849,13 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
       </c>
-      <c r="F118" t="s">
-        <v>232</v>
-      </c>
       <c r="G118" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -4914,13 +4878,13 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -4943,10 +4907,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4972,10 +4936,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5001,10 +4965,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5030,13 +4994,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5059,10 +5023,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5088,13 +5052,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5117,13 +5081,13 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -5146,13 +5110,13 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -5175,10 +5139,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5204,10 +5168,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5233,13 +5197,13 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -5262,13 +5226,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -5291,10 +5255,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5320,10 +5284,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5349,10 +5313,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5378,13 +5342,13 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>119</v>
       </c>
       <c r="G135" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -5407,13 +5371,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -5436,10 +5400,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5465,13 +5429,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="G138" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -5494,13 +5458,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5523,10 +5487,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5552,10 +5516,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5581,10 +5545,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5610,10 +5574,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>186</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5639,13 +5603,13 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -5668,13 +5632,13 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>149</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -5697,13 +5661,13 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>131</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -5726,13 +5690,13 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>135</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -5755,10 +5719,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5784,13 +5748,13 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -5813,13 +5777,13 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -5842,13 +5806,13 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -5871,13 +5835,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -5900,13 +5864,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -5929,13 +5893,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -5958,10 +5922,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5987,10 +5951,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6016,10 +5980,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6045,13 +6009,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6074,13 +6038,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -6103,10 +6067,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6132,10 +6096,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6161,13 +6125,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -6190,13 +6154,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -6219,10 +6183,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6248,13 +6212,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -6277,10 +6241,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6306,10 +6270,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6335,10 +6299,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6364,13 +6328,13 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -6393,10 +6357,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6422,13 +6386,13 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G171" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -6451,13 +6415,13 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -6480,10 +6444,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>111</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6509,10 +6473,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6538,10 +6502,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6567,10 +6531,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6596,10 +6560,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6625,10 +6589,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6654,10 +6618,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6683,10 +6647,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6712,10 +6676,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6741,10 +6705,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6770,10 +6734,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6799,13 +6763,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -6828,13 +6792,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -6857,10 +6821,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6886,47 +6850,18 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
       </c>
       <c r="I187" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="s">
-        <v>0</v>
-      </c>
-      <c r="C188" t="s">
-        <v>1</v>
-      </c>
-      <c r="D188" t="n">
-        <v>187</v>
-      </c>
-      <c r="E188" t="s">
-        <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>369</v>
-      </c>
-      <c r="G188" t="n">
-        <v>1</v>
-      </c>
-      <c r="H188" t="s">
-        <v>4</v>
-      </c>
-      <c r="I188" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/意识形态_intext.xlsx
+++ b/xlsx/意识形态_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-Ideology</t>
   </si>
   <si>
-    <t>政策_政策_政治_意识形态</t>
+    <t>体育运动_体育运动_犹太人大屠杀_意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
